--- a/medicine/Soins infirmiers et profession infirmière/1997_en_santé_et_médecine/1997_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1997_en_santé_et_médecine/1997_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1997_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1997_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1997 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1997_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1997_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Évènements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Inauguration de l'Institut Albert-Bonniot, futur Institute for Advanced Biosciences.</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1997_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1997_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2 mai : John Carew Eccles (né en 1903), neurophysiologiste australien, lauréat du prix Nobel de médecine, partagé en 1963 avec Alan Lloyd Hodgkin et Andrew Huxley pour leurs découvertes concernant l'électrophysiologie.</t>
         </is>
